--- a/prelim/PPI Info (Ireland).xlsx
+++ b/prelim/PPI Info (Ireland).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -526,6 +526,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -50777,9 +50780,11 @@
       <c r="C2" t="s">
         <v>169</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -51014,9 +51019,11 @@
       <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -51249,13 +51256,13 @@
         <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -51488,13 +51495,13 @@
         <v>168</v>
       </c>
       <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -51727,13 +51734,13 @@
         <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -51966,13 +51973,13 @@
         <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -52205,13 +52212,13 @@
         <v>168</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -52444,13 +52451,13 @@
         <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -52683,13 +52690,13 @@
         <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -52922,13 +52929,13 @@
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -53161,13 +53168,13 @@
         <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -53400,13 +53407,13 @@
         <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -53639,13 +53646,13 @@
         <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -53878,13 +53885,13 @@
         <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -54117,13 +54124,13 @@
         <v>168</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -54356,13 +54363,13 @@
         <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -54595,13 +54602,13 @@
         <v>168</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -54834,13 +54841,13 @@
         <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -55073,13 +55080,13 @@
         <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -55312,13 +55319,13 @@
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -55551,13 +55558,13 @@
         <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -55790,13 +55797,13 @@
         <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -56029,13 +56036,13 @@
         <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -56268,13 +56275,13 @@
         <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -56507,13 +56514,13 @@
         <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -56746,13 +56753,13 @@
         <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -56985,13 +56992,13 @@
         <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -57224,13 +57231,13 @@
         <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -57463,13 +57470,13 @@
         <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -57702,13 +57709,13 @@
         <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
